--- a/biology/Médecine/Polio__An_American_Story/Polio__An_American_Story.xlsx
+++ b/biology/Médecine/Polio__An_American_Story/Polio__An_American_Story.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Polio: An American Story (en français : Polio : une histoire américaine) est un livre de David M. Oshinsky, professeur d'histoire à l'université de New York, qui documente l'épidémie de poliomyélite aux États-Unis qui a sévi durant les années 1940 et 1950, et la course pour trouver un remède, qui a finalement été développé dans les années 1950 par le chercheur en médecine Jonas Salk.
-Il a été publié en 2005 par l'Oxford University Press et remporte en 2006 le prix Pulitzer d'histoire[1] et le prix Herbert Hoover de 2005.
+Il a été publié en 2005 par l'Oxford University Press et remporte en 2006 le prix Pulitzer d'histoire et le prix Herbert Hoover de 2005.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>David M. Oshinsky, Polio : An American Story, Oxford University Press, USA, 2005, 342 p. (ISBN 0-19-515294-8, lire en ligne)</t>
         </is>
